--- a/databases/database_real_nor_Cd_Zn.xlsx
+++ b/databases/database_real_nor_Cd_Zn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44063A-12AC-4CA6-808F-0BFB253705A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B21CC6-BBD4-463E-B309-791EB3430CC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9024" activeTab="3" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Promotor associated with Ferric-chelate reductase</t>
   </si>
   <si>
-    <t>van de Mortrel et al., Plant, Cell, and Environment, 2008</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -637,6 +634,12 @@
   </si>
   <si>
     <t>notes: These expression profiles often apply to seedlings or pre-flowering plants, often specifically the root tissue</t>
+  </si>
+  <si>
+    <t>Suzuki, Koizumi, and Sano, Plant, Cell, and Environment, 2001.</t>
+  </si>
+  <si>
+    <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0B67-C143-4E31-A58F-929298EF32F4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,10 +1059,10 @@
         <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1067,7 +1070,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1099,7 +1102,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1116,6 +1119,9 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1131,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1148,6 +1154,9 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1163,7 +1172,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1175,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -1195,10 +1204,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1210,27 +1219,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
         <v>110</v>
-      </c>
-      <c r="L6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1242,22 +1254,22 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
         <v>106</v>
-      </c>
-      <c r="L7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1265,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1277,10 +1289,13 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
@@ -1297,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1335,7 +1350,7 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1347,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>65</v>
@@ -1370,7 +1385,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1382,19 +1397,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -1402,10 +1417,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1420,30 +1435,30 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1455,30 +1470,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1490,33 +1505,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1528,33 +1543,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1566,33 +1581,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1604,30 +1619,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
         <v>121</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1639,30 +1654,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
         <v>162</v>
       </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1674,30 +1689,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>121</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1709,30 +1724,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
         <v>127</v>
       </c>
-      <c r="H20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>121</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1744,22 +1759,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" t="s">
-        <v>159</v>
-      </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1816,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1836,16 +1851,16 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,94 +1877,94 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
         <v>149</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2056,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10B3961-BE2E-4FDD-8E5E-7097ABFF7922}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2094,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2120,13 +2135,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2149,21 +2164,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2175,24 +2190,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2204,24 +2219,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2233,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2311,10 +2326,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2352,7 @@
         <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>

--- a/databases/database_real_nor_Cd_Zn.xlsx
+++ b/databases/database_real_nor_Cd_Zn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B21CC6-BBD4-463E-B309-791EB3430CC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BA58F-4F9B-4D5D-96D9-254BC235F910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I21"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/databases/database_real_nor_Cd_Zn.xlsx
+++ b/databases/database_real_nor_Cd_Zn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BA58F-4F9B-4D5D-96D9-254BC235F910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36E375-5880-42B1-A307-B3AE9D88BC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>HSP terminator</t>
   </si>
   <si>
-    <t>Califlower Mosaic Virus (CaMV) 35S promotor generally constitutive in most plants</t>
-  </si>
-  <si>
-    <t>CaMV 35S Promotor</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -208,24 +202,9 @@
     </r>
   </si>
   <si>
-    <t>Promotor associated with protein AAG50970.1 which is Cadmium-induced</t>
-  </si>
-  <si>
     <t>Cd(2)</t>
   </si>
   <si>
-    <t>CdI3-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
-  </si>
-  <si>
-    <t>CAO-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAD01509.1 which is Cadmium-inhibited</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -247,21 +226,9 @@
     <t>Oryza sativa</t>
   </si>
   <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 8</t>
-  </si>
-  <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 11</t>
-  </si>
-  <si>
-    <t>EXO70B1-associated promotor chromosome 11</t>
-  </si>
-  <si>
     <t>Os05g0148900</t>
   </si>
   <si>
-    <t>GSTF1-associated promotor</t>
-  </si>
-  <si>
     <t>Os11g0572200</t>
   </si>
   <si>
@@ -277,9 +244,6 @@
     <t>Cd(1)</t>
   </si>
   <si>
-    <t>CdI10-associated promotor</t>
-  </si>
-  <si>
     <t>At2G36220</t>
   </si>
   <si>
@@ -289,12 +253,6 @@
     <t>Activated by copper 2.3x, inhibited by cadmium 1.43x (devisor) there appears to be no significant cases of Cd activation and Cu inhibition</t>
   </si>
   <si>
-    <t>Promotor associated with glycosyltransferase (GT) chromozome 7</t>
-  </si>
-  <si>
-    <t>GT-associated promotor</t>
-  </si>
-  <si>
     <t>Os07g0201500</t>
   </si>
   <si>
@@ -313,15 +271,9 @@
     <t>Cu</t>
   </si>
   <si>
-    <t>FRO2-associated promotor</t>
-  </si>
-  <si>
     <t>Aboout 4x greater expression in Zn and Cd Exposure</t>
   </si>
   <si>
-    <t>Promotor associated with Ferric-chelate reductase</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -340,36 +292,21 @@
     <t>Zn(1);Cd(1)</t>
   </si>
   <si>
-    <t>RSU1-associated promotor</t>
-  </si>
-  <si>
     <t>Zn(1)</t>
   </si>
   <si>
-    <t>Promotr associated with a Ribosomal Protein L13 homolog</t>
-  </si>
-  <si>
     <t>AT5G59520</t>
   </si>
   <si>
-    <t>FRD3-associated promotor</t>
-  </si>
-  <si>
     <t>Anywhere from 4x to 7x less activity from Zn depending on abundance, about 2x less activity from Cd</t>
   </si>
   <si>
     <t>AT3G08040</t>
   </si>
   <si>
-    <t>Promotor associated with MATE efflux family protein, putative</t>
-  </si>
-  <si>
     <t>Zn(2);Cd(1)</t>
   </si>
   <si>
-    <t>Promotor associated with hypothetical protein AT3G13950</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zn(1) </t>
   </si>
   <si>
@@ -377,12 +314,6 @@
   </si>
   <si>
     <t>AT3G13950</t>
-  </si>
-  <si>
-    <t>ZIP4-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Zinc Ion Protein 4</t>
   </si>
   <si>
     <t>Assuncao et al., PNAS, 2010
@@ -392,9 +323,6 @@
     <t>AT1G10970</t>
   </si>
   <si>
-    <t>ZIP2-associated promotor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cu(1) </t>
   </si>
   <si>
@@ -404,24 +332,12 @@
     <t>Noted in first source that ZIP2 induced by Zn and in second that downregulated in Cu excess. Not sure which would dominate if both present</t>
   </si>
   <si>
-    <t>ZIP5-associated promotor</t>
-  </si>
-  <si>
     <t>Assuncao et al., PNAS, 2010</t>
   </si>
   <si>
     <t>AT1G05300</t>
   </si>
   <si>
-    <t>strong upregulation of this promotor by zinc deficiency low leakiness</t>
-  </si>
-  <si>
-    <t>IRT1-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Fe(II) transporter</t>
-  </si>
-  <si>
     <t>AT4G19690</t>
   </si>
   <si>
@@ -431,9 +347,6 @@
     <t>guessed values from northern blot data</t>
   </si>
   <si>
-    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promotor in plant synthetic biology</t>
-  </si>
-  <si>
     <t>Zinc</t>
   </si>
   <si>
@@ -450,9 +363,6 @@
   </si>
   <si>
     <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Promotor from the Registry of Standard Biological Parts</t>
   </si>
   <si>
     <t>Zomorrodi and Maranas, European Journal of Operational Research, 2014.</t>
@@ -579,9 +489,6 @@
     <t>P_RM</t>
   </si>
   <si>
-    <t>Promotor engineered to be activated by cI</t>
-  </si>
-  <si>
     <t>Broedel et al. Nature Communications, 2016.</t>
   </si>
   <si>
@@ -640,6 +547,99 @@
   </si>
   <si>
     <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
+  </si>
+  <si>
+    <t>CaMV 35S promoter</t>
+  </si>
+  <si>
+    <t>Califlower Mosaic Virus (CaMV) 35S promoter generally constitutive in most plants</t>
+  </si>
+  <si>
+    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promoter in plant synthetic biology</t>
+  </si>
+  <si>
+    <t>CdI3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAG50970.1 which is Cadmium-induced</t>
+  </si>
+  <si>
+    <t>CAO-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAD01509.1 which is Cadmium-inhibited</t>
+  </si>
+  <si>
+    <t>EXO70B1-associated promoter chromosome 11</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 11</t>
+  </si>
+  <si>
+    <t>IRT1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Fe(II) transporter</t>
+  </si>
+  <si>
+    <t>ZIP5-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Zinc Ion Protein 4</t>
+  </si>
+  <si>
+    <t>strong upregulation of this promoter by zinc deficiency low leakiness</t>
+  </si>
+  <si>
+    <t>CdI10-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
+  </si>
+  <si>
+    <t>GSTF1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 8</t>
+  </si>
+  <si>
+    <t>GT-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with glycosyltransferase (GT) chromozome 7</t>
+  </si>
+  <si>
+    <t>FRO2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Ferric-chelate reductase</t>
+  </si>
+  <si>
+    <t>RSU1-associated promoter</t>
+  </si>
+  <si>
+    <t>FRD3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with MATE efflux family protein, putative</t>
+  </si>
+  <si>
+    <t>promoter associated with hypothetical protein AT3G13950</t>
+  </si>
+  <si>
+    <t>ZIP4-associated promoter</t>
+  </si>
+  <si>
+    <t>ZIP2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter from the Registry of Standard Biological Parts</t>
+  </si>
+  <si>
+    <t>promoter engineered to be activated by cI</t>
+  </si>
+  <si>
+    <t>Promoter associated with a Ribosomal Protein L13 homolog</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,24 +1053,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1082,27 +1082,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1114,30 +1114,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1149,30 +1149,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1184,30 +1184,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1219,30 +1219,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1254,30 +1254,30 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1289,30 +1289,30 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1324,33 +1324,33 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1362,30 +1362,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1397,30 +1397,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1432,33 +1432,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1470,30 +1470,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1505,33 +1505,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1543,33 +1543,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1581,33 +1581,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1619,30 +1619,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1654,30 +1654,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1689,30 +1689,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1724,30 +1724,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1759,22 +1759,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1831,10 +1831,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1851,16 +1851,16 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1877,94 +1877,94 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2109,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2164,21 +2164,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2190,24 +2190,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2219,24 +2219,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2248,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,26 +2310,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2349,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
